--- a/app/src/main/resources/static/gndDownload.xlsx
+++ b/app/src/main/resources/static/gndDownload.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQ\news\2572737780\FileRecv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A78A8C6-EEE4-40FA-9AD6-923EA7543561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1035" windowWidth="20730" windowHeight="11760" tabRatio="703"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求原子功能点评估" sheetId="12" r:id="rId1"/>
@@ -18,10 +24,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">工作量评估标准!$A$1:$I$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">原子单元项说明!$A$1:$F$42</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1303,26 +1314,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>基础应用研发部</t>
-  </si>
-  <si>
     <t>工作量单位：人天</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础应用研发部:XX%；互联网金融研发部:XX%；银行合作研发部:XX%;</t>
-    <rPh sb="0" eb="1">
-      <t>ji'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ying'y</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yan'f</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>bu</t>
-    </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1360,11 +1352,30 @@
     <t>XXXX</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>话费充值研发组</t>
+  </si>
+  <si>
+    <t>话费充值研发组:XX%；聚合支付研发组:XX%；</t>
+    <rPh sb="0" eb="1">
+      <t>ji'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan'f</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -1954,6 +1965,9 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2097,86 +2111,17 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFDCEEF4"/>
       <color rgb="FFEAF2DE"/>
@@ -2187,6 +2132,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2209,7 +2157,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2234,7 +2188,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="原子单元项说明"/>
@@ -4400,7 +4354,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4678,38 +4632,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K32"/>
+      <selection activeCell="B4" sqref="B4:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="19.89453125" customWidth="1"/>
+    <col min="6" max="6" width="9.1015625" customWidth="1"/>
+    <col min="7" max="7" width="13.1015625" customWidth="1"/>
+    <col min="11" max="11" width="18.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -4717,97 +4671,97 @@
         <v>1</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59" t="s">
+      <c r="D3" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="B4" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="B5" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" spans="1:12" ht="33">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+    </row>
+    <row r="7" spans="1:12" ht="32.4">
       <c r="A7" s="41" t="s">
         <v>9</v>
       </c>
@@ -4843,7 +4797,7 @@
       </c>
       <c r="L7" s="45"/>
     </row>
-    <row r="8" spans="1:12" ht="25.5">
+    <row r="8" spans="1:12" ht="28.2">
       <c r="A8" s="42" t="s">
         <v>303</v>
       </c>
@@ -4877,13 +4831,13 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="K8" s="98">
+      <c r="K8" s="50">
         <f>SUM(J8:J32)</f>
         <v>51</v>
       </c>
       <c r="L8" s="45"/>
     </row>
-    <row r="9" spans="1:12" ht="25.5">
+    <row r="9" spans="1:12" ht="28.2">
       <c r="A9" s="42" t="s">
         <v>303</v>
       </c>
@@ -4917,10 +4871,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="98"/>
+      <c r="K9" s="50"/>
       <c r="L9" s="45"/>
     </row>
-    <row r="10" spans="1:12" ht="25.5">
+    <row r="10" spans="1:12" ht="28.2">
       <c r="A10" s="42" t="s">
         <v>306</v>
       </c>
@@ -4954,10 +4908,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="98"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="45"/>
     </row>
-    <row r="11" spans="1:12" ht="25.5">
+    <row r="11" spans="1:12" ht="28.2">
       <c r="A11" s="42" t="s">
         <v>306</v>
       </c>
@@ -4991,10 +4945,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="98"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="45"/>
     </row>
-    <row r="12" spans="1:12" ht="25.5">
+    <row r="12" spans="1:12" ht="28.2">
       <c r="A12" s="42" t="s">
         <v>306</v>
       </c>
@@ -5028,10 +4982,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="98"/>
+      <c r="K12" s="50"/>
       <c r="L12" s="45"/>
     </row>
-    <row r="13" spans="1:12" ht="25.5">
+    <row r="13" spans="1:12" ht="28.2">
       <c r="A13" s="42" t="s">
         <v>306</v>
       </c>
@@ -5065,10 +5019,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="98"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="45"/>
     </row>
-    <row r="14" spans="1:12" ht="25.5">
+    <row r="14" spans="1:12" ht="28.2">
       <c r="A14" s="42" t="s">
         <v>306</v>
       </c>
@@ -5102,10 +5056,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="98"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="45"/>
     </row>
-    <row r="15" spans="1:12" ht="25.5">
+    <row r="15" spans="1:12" ht="28.2">
       <c r="A15" s="42" t="s">
         <v>306</v>
       </c>
@@ -5139,10 +5093,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K15" s="98"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="45"/>
     </row>
-    <row r="16" spans="1:12" ht="25.5">
+    <row r="16" spans="1:12" ht="28.2">
       <c r="A16" s="42" t="s">
         <v>306</v>
       </c>
@@ -5176,10 +5130,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="98"/>
+      <c r="K16" s="50"/>
       <c r="L16" s="45"/>
     </row>
-    <row r="17" spans="1:12" ht="25.5">
+    <row r="17" spans="1:12" ht="28.2">
       <c r="A17" s="42" t="s">
         <v>306</v>
       </c>
@@ -5213,10 +5167,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K17" s="98"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="45"/>
     </row>
-    <row r="18" spans="1:12" ht="25.5">
+    <row r="18" spans="1:12" ht="28.2">
       <c r="A18" s="42" t="s">
         <v>303</v>
       </c>
@@ -5250,10 +5204,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="98"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="45"/>
     </row>
-    <row r="19" spans="1:12" ht="25.5">
+    <row r="19" spans="1:12" ht="28.2">
       <c r="A19" s="42" t="s">
         <v>306</v>
       </c>
@@ -5287,10 +5241,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K19" s="98"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="45"/>
     </row>
-    <row r="20" spans="1:12" ht="25.5">
+    <row r="20" spans="1:12" ht="28.2">
       <c r="A20" s="42" t="s">
         <v>306</v>
       </c>
@@ -5324,10 +5278,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K20" s="98"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="45"/>
     </row>
-    <row r="21" spans="1:12" ht="25.5">
+    <row r="21" spans="1:12" ht="28.2">
       <c r="A21" s="42" t="s">
         <v>306</v>
       </c>
@@ -5361,10 +5315,10 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K21" s="98"/>
+      <c r="K21" s="50"/>
       <c r="L21" s="45"/>
     </row>
-    <row r="22" spans="1:12" ht="25.5">
+    <row r="22" spans="1:12" ht="28.2">
       <c r="A22" s="42" t="s">
         <v>306</v>
       </c>
@@ -5398,7 +5352,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K22" s="98"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1">
@@ -5435,7 +5389,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K23" s="98"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1">
       <c r="A24" s="42" t="s">
@@ -5471,7 +5425,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="K24" s="98"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1">
       <c r="A25" s="42" t="s">
@@ -5507,7 +5461,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="K25" s="98"/>
+      <c r="K25" s="50"/>
       <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1">
@@ -5544,7 +5498,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="K26" s="98"/>
+      <c r="K26" s="50"/>
       <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" customHeight="1">
@@ -5581,7 +5535,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="K27" s="98"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="47"/>
     </row>
     <row r="28" spans="1:12" ht="13.5" customHeight="1">
@@ -5618,7 +5572,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="K28" s="98"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="47"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
@@ -5655,7 +5609,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="K29" s="98"/>
+      <c r="K29" s="50"/>
       <c r="L29" s="47"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1">
@@ -5692,7 +5646,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="K30" s="98"/>
+      <c r="K30" s="50"/>
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" ht="14.1" customHeight="1">
@@ -5729,7 +5683,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="K31" s="98"/>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1">
       <c r="A32" s="42" t="s">
@@ -5765,7 +5719,7 @@
         <f>VLOOKUP(G:G,[1]工作量评估标准!C:I,2,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="K32" s="98"/>
+      <c r="K32" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5783,26 +5737,26 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"进程,服务,页面,产品配置,接口配置,服开配置,业务配置,资料处理,报表,产品配置,优惠配置,业务规则配置,批量赠送处理,经分接口,外部接口,酬金项目"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"新增,修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D32" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"新增,修改,不变"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E32" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"微小,简单,普通,复杂"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F32" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C32" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"页面,服务,进程,产品配置,数据处理,报表,外部输入接口,外部输出接口,后台脚本,前端设计,新产品研究与分析,旧产品研究与分析,产品运营,产品资料归档,接口联调,运维事件,应用系统巡检,应用告警处理,产品资料梳理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:E3">
-      <formula1>"银行合作研发部,移动支付研发部,营销服务研发部,基础应用研发部,互联网金融研发部,风控大数据研发部,前端技术研发部,客户端研发部,平台架构部,产品测试部"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:E3" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>"话费充值研发组,聚合支付研发组,营销活动研发组,渠道产品研发组,信用购机研发组,号码借研发组,银行&amp;公共中心研发组,用户&amp;清算&amp;账务研发组,支付研发组,营销研发组,商户业务研发团队,智慧食堂研发团队,平台架构研发团队,前端技术研发团队,质量监督组,产品测试团队,资金归集项目组,设计项目组,团体组织交费项目组,客服中间层项目组"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5811,36 +5765,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="28" style="17" customWidth="1"/>
-    <col min="2" max="2" width="38.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="83.875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="47.875" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="19"/>
+    <col min="2" max="2" width="38.68359375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="32.3125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="38.68359375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="7.1015625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="83.89453125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="47.89453125" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="10.89453125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:7" ht="60.75">
+    <row r="2" spans="1:7" ht="55.8">
       <c r="A2" s="21" t="s">
         <v>29</v>
       </c>
@@ -5864,13 +5818,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="59.1" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="71" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -5879,47 +5833,47 @@
       <c r="E3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="65" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="56.1" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="71"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="65"/>
-    </row>
-    <row r="5" spans="1:7" ht="45.95" customHeight="1">
-      <c r="A5" s="93"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="72"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="66"/>
+    </row>
+    <row r="5" spans="1:7" ht="45.9" customHeight="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="65"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="71" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -5928,45 +5882,45 @@
       <c r="E6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="60.95" customHeight="1">
-      <c r="A7" s="93"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="71"/>
+      <c r="G6" s="66"/>
+    </row>
+    <row r="7" spans="1:7" ht="60.9" customHeight="1">
+      <c r="A7" s="94"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" spans="1:7" ht="111.95" customHeight="1">
-      <c r="A8" s="93"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="72"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="66"/>
+    </row>
+    <row r="8" spans="1:7" ht="111.9" customHeight="1">
+      <c r="A8" s="94"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="65"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="71" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="24" t="s">
@@ -5975,45 +5929,45 @@
       <c r="E9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="45" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="71"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="24" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="65"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:7" ht="45" customHeight="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="24" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" spans="1:7" ht="51.95" customHeight="1">
-      <c r="A12" s="93" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="66"/>
+    </row>
+    <row r="12" spans="1:7" ht="51.9" customHeight="1">
+      <c r="A12" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="71" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -6022,45 +5976,45 @@
       <c r="E12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="1:7" ht="54" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="24" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" spans="1:7" ht="44.1" customHeight="1">
-      <c r="A14" s="93"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="72"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="65"/>
-    </row>
-    <row r="15" spans="1:7" ht="54.95" customHeight="1">
-      <c r="A15" s="93" t="s">
+      <c r="F14" s="64"/>
+      <c r="G14" s="66"/>
+    </row>
+    <row r="15" spans="1:7" ht="54.9" customHeight="1">
+      <c r="A15" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="71" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -6069,45 +6023,45 @@
       <c r="E15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="65"/>
-    </row>
-    <row r="16" spans="1:7" ht="51.95" customHeight="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="71"/>
+      <c r="G15" s="66"/>
+    </row>
+    <row r="16" spans="1:7" ht="51.9" customHeight="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="24" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="1:8" ht="54" customHeight="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="65"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="1:8" ht="74.099999999999994" customHeight="1">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="71" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -6116,45 +6070,45 @@
       <c r="E18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="1:8" ht="74.099999999999994" customHeight="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="71"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="24" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="65"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:8" ht="89.25" customHeight="1">
-      <c r="A20" s="93"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="24" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="65"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="1:8" ht="47.1" customHeight="1">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="71" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -6163,45 +6117,45 @@
       <c r="E21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:8" ht="44.1" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="71"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="24" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="65"/>
-    </row>
-    <row r="23" spans="1:8" ht="63.95" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="72"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="66"/>
+    </row>
+    <row r="23" spans="1:8" ht="63.9" customHeight="1">
+      <c r="A23" s="95"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="24" t="s">
         <v>81</v>
       </c>
       <c r="E23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="24" spans="1:8" s="16" customFormat="1" ht="60.95" customHeight="1">
-      <c r="A24" s="95" t="s">
+      <c r="F23" s="64"/>
+      <c r="G23" s="66"/>
+    </row>
+    <row r="24" spans="1:8" s="16" customFormat="1" ht="60.9" customHeight="1">
+      <c r="A24" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="74" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -6210,60 +6164,60 @@
       <c r="E24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A25" s="95"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="74"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="24" t="s">
         <v>86</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="65"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:8" s="16" customFormat="1" ht="71.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="75"/>
+    <row r="26" spans="1:8" s="16" customFormat="1" ht="85.5">
+      <c r="A26" s="96"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="24" t="s">
         <v>87</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="65"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="65"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="68.099999999999994" customHeight="1">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="77" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="34" t="s">
@@ -6272,36 +6226,36 @@
       <c r="E28" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="65"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:8" ht="62.1" customHeight="1">
-      <c r="A29" s="96"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="77"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="34" t="s">
         <v>94</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:8" ht="92.1" customHeight="1">
-      <c r="A30" s="96"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="78"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="34" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="65"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:8" ht="119.1" customHeight="1">
       <c r="A31" s="33" t="s">
@@ -6322,27 +6276,27 @@
       <c r="F31" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:8" ht="45.95" customHeight="1">
-      <c r="A32" s="88" t="s">
+      <c r="G31" s="66"/>
+    </row>
+    <row r="32" spans="1:8" ht="45.9" customHeight="1">
+      <c r="A32" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="91"/>
       <c r="F32" s="36"/>
-      <c r="G32" s="65"/>
+      <c r="G32" s="66"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="71" t="s">
         <v>104</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -6351,25 +6305,25 @@
       <c r="E33" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="65"/>
-    </row>
-    <row r="34" spans="1:7" ht="36.950000000000003" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="72"/>
+      <c r="G33" s="66"/>
+    </row>
+    <row r="34" spans="1:7" ht="36.9" customHeight="1">
+      <c r="A34" s="95"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="24" t="s">
         <v>106</v>
       </c>
       <c r="E34" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="65"/>
-    </row>
-    <row r="35" spans="1:7" ht="60.95" customHeight="1">
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
+    </row>
+    <row r="35" spans="1:7" ht="60.9" customHeight="1">
       <c r="A35" s="37" t="s">
         <v>107</v>
       </c>
@@ -6386,9 +6340,9 @@
       <c r="F35" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="65"/>
-    </row>
-    <row r="36" spans="1:7" ht="63.95" customHeight="1">
+      <c r="G35" s="66"/>
+    </row>
+    <row r="36" spans="1:7" ht="63.9" customHeight="1">
       <c r="A36" s="37" t="s">
         <v>110</v>
       </c>
@@ -6407,16 +6361,16 @@
       <c r="F36" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="65"/>
-    </row>
-    <row r="37" spans="1:7" ht="48.95" customHeight="1">
-      <c r="A37" s="97" t="s">
+      <c r="G36" s="66"/>
+    </row>
+    <row r="37" spans="1:7" ht="48.9" customHeight="1">
+      <c r="A37" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="71" t="s">
         <v>115</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -6425,32 +6379,32 @@
       <c r="E37" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="66"/>
     </row>
     <row r="38" spans="1:7" ht="57" customHeight="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="72"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="24" t="s">
         <v>117</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="63"/>
-      <c r="G38" s="65"/>
-    </row>
-    <row r="39" spans="1:7" ht="48.95" customHeight="1">
-      <c r="A39" s="97" t="s">
+      <c r="F38" s="64"/>
+      <c r="G38" s="66"/>
+    </row>
+    <row r="39" spans="1:7" ht="48.9" customHeight="1">
+      <c r="A39" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="71" t="s">
         <v>120</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -6459,34 +6413,34 @@
       <c r="E39" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="62" t="s">
+      <c r="F39" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="65"/>
+      <c r="G39" s="66"/>
     </row>
     <row r="40" spans="1:7" ht="57" customHeight="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="72"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="24" t="s">
         <v>122</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="65"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="1:7" ht="51" customHeight="1">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="65"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="66"/>
     </row>
     <row r="42" spans="1:7" ht="114" customHeight="1">
       <c r="A42" s="37" t="s">
@@ -6507,10 +6461,10 @@
       <c r="F42" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="66"/>
+      <c r="G42" s="67"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F42"/>
+  <autoFilter ref="A1:F42" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="53">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A27:E27"/>
@@ -6573,8 +6527,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -6582,17 +6536,17 @@
       <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1"/>
-    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.89453125" style="1"/>
+    <col min="2" max="2" width="19.68359375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.89453125" style="1"/>
+    <col min="4" max="4" width="23.3125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.89453125" style="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1015625" style="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="10" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8819,7 +8773,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I81">
+  <autoFilter ref="A1:I81" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="报表"/>
